--- a/01_document/02_スケジュール/WBS1.xlsx
+++ b/01_document/02_スケジュール/WBS1.xlsx
@@ -1314,7 +1314,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1324,6 +1324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,7 +1400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,477 +1437,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="249">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2188,1345 +1737,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -3550,8 +1760,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="248"/>
-      <tableStyleElement type="headerRow" dxfId="247"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3832,7 +2042,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3891,206 +2101,258 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="4">
-        <v>42875</v>
+        <v>42855</v>
       </c>
       <c r="F2" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4">
-        <v>42875</v>
+        <v>42855</v>
       </c>
       <c r="F3" s="2">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="14">
+        <v>42875</v>
+      </c>
+      <c r="F4" s="12">
+        <v>3</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4">
-        <v>42855</v>
-      </c>
-      <c r="F4" s="2">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4">
-        <v>42855</v>
+        <v>42875</v>
       </c>
       <c r="F5" s="2">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="14">
+        <v>42875</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4">
+        <v>42875</v>
+      </c>
+      <c r="F7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="E8" s="4">
+        <v>42875</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42875</v>
       </c>
       <c r="F9" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -4099,50 +2361,56 @@
         <v>13</v>
       </c>
       <c r="E10" s="4">
-        <v>42875</v>
+        <v>42886</v>
       </c>
       <c r="F10" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4">
         <v>42886</v>
       </c>
       <c r="F11" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -4150,103 +2418,112 @@
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="E12" s="4">
+        <v>42916</v>
+      </c>
       <c r="F12" s="2">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="4">
+        <v>42916</v>
       </c>
       <c r="F13" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
+      <c r="E14" s="4">
+        <v>42916</v>
       </c>
       <c r="F14" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="4">
-        <v>42875</v>
+        <v>42916</v>
       </c>
       <c r="F15" s="2">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E16" s="4">
-        <v>42886</v>
+        <v>42978</v>
       </c>
       <c r="F16" s="2">
         <v>6</v>
@@ -4258,125 +2535,101 @@
         <v>82</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4">
-        <v>42978</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2">
-        <v>6</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="4">
-        <v>42875</v>
+        <v>54</v>
       </c>
       <c r="F18" s="2">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F19" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
@@ -4385,96 +2638,81 @@
         <v>14</v>
       </c>
       <c r="F21" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="4">
-        <v>42875</v>
+        <v>15</v>
       </c>
       <c r="F22" s="2">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>82</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
@@ -4489,41 +2727,38 @@
         <v>82</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>9</v>
@@ -4532,21 +2767,21 @@
         <v>13</v>
       </c>
       <c r="F27" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>9</v>
@@ -4558,18 +2793,18 @@
         <v>4</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>9</v>
@@ -4581,18 +2816,18 @@
         <v>4</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>9</v>
@@ -4601,18 +2836,24 @@
         <v>13</v>
       </c>
       <c r="F30" s="2">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>9</v>
@@ -4621,38 +2862,44 @@
         <v>13</v>
       </c>
       <c r="F31" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -4660,25 +2907,22 @@
       <c r="D33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="4">
-        <v>42916</v>
-      </c>
       <c r="F33" s="2">
         <v>4</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I33" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>9</v>
@@ -4690,36 +2934,35 @@
         <v>20</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>13</v>
+      </c>
       <c r="F35" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>9</v>
@@ -4728,18 +2971,18 @@
         <v>13</v>
       </c>
       <c r="F36" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>9</v>
@@ -4747,65 +2990,60 @@
       <c r="D37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="4">
-        <v>42916</v>
-      </c>
       <c r="F37" s="2">
-        <v>4</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2">
+        <v>8</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2">
+        <v>40</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="2">
-        <v>10</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="2">
-        <v>4</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>9</v>
@@ -4814,44 +3052,38 @@
         <v>13</v>
       </c>
       <c r="F40" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="4">
-        <v>42916</v>
+        <v>14</v>
       </c>
       <c r="F41" s="2">
         <v>4</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I41" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
@@ -4860,58 +3092,58 @@
         <v>13</v>
       </c>
       <c r="F42" s="2">
+        <v>6</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2">
         <v>20</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="2">
-        <v>4</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>43</v>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F44" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>9</v>
@@ -4919,20 +3151,14 @@
       <c r="D45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="4">
-        <v>42916</v>
-      </c>
       <c r="F45" s="2">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4952,7 +3178,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4972,7 +3198,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5018,116 +3244,116 @@
   </sheetData>
   <autoFilter ref="A1:L1">
     <sortState ref="A2:L49">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D20:D27 D30:D34 D1:D18 D44:D45 D36:D38 D40:D41 D47:D1048576">
-    <cfRule type="containsText" dxfId="83" priority="57" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="28" priority="57" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="58" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="27" priority="58" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="59" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="26" priority="59" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="80" priority="54" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="25" priority="54" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="55" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="24" priority="55" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="56" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="23" priority="56" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="containsText" dxfId="77" priority="51" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="22" priority="51" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="52" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="21" priority="52" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="53" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="20" priority="53" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="74" priority="42" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="19" priority="42" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="43" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="44" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="17" priority="44" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="71" priority="39" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="16" priority="39" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="40" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="15" priority="40" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="41" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="14" priority="41" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="68" priority="22" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="13" priority="22" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="23" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="24" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="11" priority="24" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="16" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="10" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:XFD43">
-    <cfRule type="expression" dxfId="59" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>$C53=完了</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:L43">
-    <cfRule type="expression" dxfId="58" priority="13">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>$C47="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="2" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
